--- a/data/registration.xlsx
+++ b/data/registration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\geog575\lab2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\geog575\lab2\VoteOK\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BBE6D-ACEF-425A-B8E2-0A0CD5EB52BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EFCC0-9BA7-413C-ABD7-1AC67752385D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8270" yWindow="440" windowWidth="25600" windowHeight="12950" xr2:uid="{EBF1EF71-910D-4F81-8FBD-CBE9EF173DBE}"/>
+    <workbookView xWindow="0" yWindow="1450" windowWidth="25600" windowHeight="12950" xr2:uid="{EBF1EF71-910D-4F81-8FBD-CBE9EF173DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065376A5-A0F1-4F78-B4FA-A062EF27D58E}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>20013</v>
+        <v>40013</v>
       </c>
       <c r="D8" s="1">
         <v>42582</v>
@@ -1557,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>20015</v>
+        <v>40015</v>
       </c>
       <c r="D9" s="1">
         <v>29704</v>
@@ -3609,7 +3609,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="1">
-        <v>40093</v>
+        <v>40087</v>
       </c>
       <c r="D45" s="1">
         <v>34736</v>
